--- a/Questions- JavaScript.xlsx
+++ b/Questions- JavaScript.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOYAL KHAN\Desktop\Javascript course\Prectice code\JS Prectice Book\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOYAL KHAN\Desktop\Javascript course\JS-Precitice questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="106">
   <si>
     <t>S. NO</t>
   </si>
@@ -675,6 +675,9 @@
   </si>
   <si>
     <t>learn about text.match(/\S+/g)</t>
+  </si>
+  <si>
+    <t>Create a function that will capitalize the first letter of each word in a text</t>
   </si>
 </sst>
 </file>
@@ -1208,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1956,12 +1959,16 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>32</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="20"/>
+      <c r="B34" s="2">
+        <v>45360</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>105</v>
+      </c>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="19"/>

--- a/Questions- JavaScript.xlsx
+++ b/Questions- JavaScript.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOYAL KHAN\Desktop\Javascript course\JS-Precitice questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFE157F-47F4-4F93-AC82-EFD94F922A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="108">
   <si>
     <t>S. NO</t>
   </si>
@@ -679,11 +680,26 @@
   <si>
     <t>Create a function that will capitalize the first letter of each word in a text</t>
   </si>
+  <si>
+    <t>const toUpperCaseFirstLetter = (string)=&gt;{
+  let newStr = string.split(" ");
+  for(i = 0;i &lt; newStr.length;i++){
+    let capitalizeWord = newStr[i].charAt(0).toUpperCase() + newStr[i].slice(1);
+    newStr[i] = capitalizeWord;
+  }
+  return newStr.join(" ");
+}
+let str = "this is first paragraph";
+console.log(toUpperCaseFirstLetter(str));</t>
+  </si>
+  <si>
+    <t>learn about join and split</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -732,7 +748,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -741,49 +757,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -799,12 +776,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -864,14 +835,20 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1397000</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>1327150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -898,15 +875,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:G52" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A2:G52" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <tableColumns count="7">
-    <tableColumn id="1" name="S. NO" dataDxfId="6"/>
-    <tableColumn id="5" name="Date" dataDxfId="5"/>
-    <tableColumn id="2" name="Question" dataDxfId="4"/>
-    <tableColumn id="3" name="time " dataDxfId="3"/>
-    <tableColumn id="4" name="Status" dataDxfId="2"/>
-    <tableColumn id="6" name="Solution" dataDxfId="1"/>
-    <tableColumn id="7" name="remark" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="S. NO" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Date" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Question" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="time " dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Status" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Solution" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="remark" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1208,32 +1185,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.26953125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.81640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="29.81640625" style="4" customWidth="1"/>
     <col min="4" max="5" width="10.26953125" style="1" customWidth="1"/>
     <col min="6" max="6" width="39.453125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -1242,7 +1219,7 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1254,7 +1231,7 @@
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1265,7 +1242,7 @@
       <c r="B3" s="2">
         <v>45281</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1274,10 +1251,9 @@
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -1286,7 +1262,7 @@
       <c r="B4" s="2">
         <v>45281</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1295,10 +1271,9 @@
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -1307,7 +1282,7 @@
       <c r="B5" s="2">
         <v>45281</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1316,10 +1291,9 @@
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="76" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -1328,7 +1302,7 @@
       <c r="B6" s="2">
         <v>45281</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1337,10 +1311,9 @@
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="57" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
@@ -1349,7 +1322,7 @@
       <c r="B7" s="2">
         <v>45281</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1358,10 +1331,9 @@
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="76" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
@@ -1370,7 +1342,7 @@
       <c r="B8" s="2">
         <v>45281</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1379,10 +1351,10 @@
       <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1393,7 +1365,7 @@
       <c r="B9" s="2">
         <v>45333</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1402,775 +1374,711 @@
       <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
+    <row r="10" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2">
         <v>45333</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="22" t="s">
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
+    <row r="11" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="2">
         <v>45333</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="22" t="s">
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="66.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="2">
         <v>45333</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="22" t="s">
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="85.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="2">
         <v>45333</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="22" t="s">
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" ht="152" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
+    <row r="14" spans="1:7" ht="152" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="2">
         <v>45334</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="22" t="s">
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="76" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="2">
         <v>45334</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="22" t="s">
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
+    <row r="16" spans="1:7" ht="108" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="2">
         <v>45333</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="22" t="s">
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="133" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" s="2">
         <v>45335</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="22" t="s">
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="237.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" s="2">
         <v>45336</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="22" t="s">
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="114" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
       <c r="B19" s="2">
         <v>45336</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="22" t="s">
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="247" x14ac:dyDescent="0.35">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>45337</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="22" t="s">
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="256.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>45337</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="22" t="s">
+      <c r="E21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="95" x14ac:dyDescent="0.35">
-      <c r="A22" s="4">
+    <row r="22" spans="1:7" ht="95" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
         <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>45337</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="22" t="s">
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="95" x14ac:dyDescent="0.35">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>45337</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="22" t="s">
+      <c r="E23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="104.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>45338</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="22" t="s">
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="104.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>23</v>
       </c>
       <c r="B25" s="2">
         <v>45339</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="22" t="s">
+      <c r="E25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="199.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>24</v>
       </c>
       <c r="B26" s="2">
         <v>45339</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="22" t="s">
+      <c r="E26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="228" x14ac:dyDescent="0.35">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>25</v>
       </c>
       <c r="B27" s="2">
         <v>45340</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="22" t="s">
+      <c r="E27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="133" x14ac:dyDescent="0.35">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>26</v>
       </c>
       <c r="B28" s="2">
         <v>45340</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="22" t="s">
+      <c r="E28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="114" x14ac:dyDescent="0.35">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>27</v>
       </c>
       <c r="B29" s="2">
         <v>45340</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="22" t="s">
+      <c r="E29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="266" x14ac:dyDescent="0.35">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>28</v>
       </c>
       <c r="B30" s="2">
         <v>45341</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="22" t="s">
+      <c r="E30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="228" x14ac:dyDescent="0.35">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>29</v>
       </c>
       <c r="B31" s="2">
         <v>45342</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E31" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="22" t="s">
+      <c r="E31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="152" x14ac:dyDescent="0.35">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>30</v>
       </c>
       <c r="B32" s="2">
         <v>45345</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="22" t="s">
+      <c r="E32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="161.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>31</v>
       </c>
       <c r="B33" s="2">
         <v>45345</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="22" t="s">
+      <c r="E33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="4">
+    <row r="34" spans="1:7" ht="123.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
         <v>32</v>
       </c>
       <c r="B34" s="2">
         <v>45360</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="10"/>
+      <c r="D34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>33</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="10"/>
+      <c r="C35" s="7"/>
+      <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="10"/>
+      <c r="C36" s="7"/>
+      <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>35</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="10"/>
+      <c r="C37" s="7"/>
+      <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="10"/>
+      <c r="C38" s="7"/>
+      <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>37</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="10"/>
+      <c r="C39" s="7"/>
+      <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="10"/>
+      <c r="C40" s="7"/>
+      <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>39</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="10"/>
+      <c r="C41" s="7"/>
+      <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="10"/>
+      <c r="C42" s="7"/>
+      <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>41</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="10"/>
+      <c r="C43" s="7"/>
+      <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="4">
+      <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="10"/>
+      <c r="C44" s="7"/>
+      <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="4">
+      <c r="A45" s="3">
         <v>43</v>
       </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="10"/>
+      <c r="C45" s="7"/>
+      <c r="F45" s="6"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="4">
+      <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="10"/>
+      <c r="C46" s="7"/>
+      <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="4">
+      <c r="A47" s="3">
         <v>45</v>
       </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="10"/>
+      <c r="C47" s="7"/>
+      <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="4">
+      <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="10"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="4">
+      <c r="C48" s="7"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="3">
         <v>47</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="10"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="4">
+      <c r="C49" s="7"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="10"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="4">
+      <c r="C50" s="7"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="3">
         <v>49</v>
       </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="10"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="4">
+      <c r="C51" s="7"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="3">
         <v>50</v>
       </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="10"/>
+      <c r="C52" s="7"/>
+      <c r="F52" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2186,7 +2094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D4:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Questions- JavaScript.xlsx
+++ b/Questions- JavaScript.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOYAL KHAN\Desktop\Javascript course\JS-Precitice questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFE157F-47F4-4F93-AC82-EFD94F922A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E0EA31-958E-4107-8302-A8EE55D6E824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="111">
   <si>
     <t>S. NO</t>
   </si>
@@ -694,6 +694,27 @@
   </si>
   <si>
     <t>learn about join and split</t>
+  </si>
+  <si>
+    <t>const StringToInt = (number) =&gt;{
+  let sum = 0;
+  let num = number.split(",")
+  console.log(num);
+  for(n of num){
+    let newNum = parseInt(n);
+    console.log(newNum);
+    sum += newNum;
+  }
+  console.log("sum is number:",sum);
+} 
+StringToInt("20,30,40,50,30,20,50,60,70");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+// #Calculate the sum of numbers received in a comma delimited string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solved by spliting and then convert into integer </t>
   </si>
 </sst>
 </file>
@@ -1188,8 +1209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1404,7 +1425,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1954,12 +1975,28 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="114" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>33</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="F35" s="6"/>
+      <c r="B35" s="2">
+        <v>45376</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="3">

--- a/Questions- JavaScript.xlsx
+++ b/Questions- JavaScript.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOYAL KHAN\Desktop\Javascript course\JS-Precitice questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E0EA31-958E-4107-8302-A8EE55D6E824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A8B750-47C4-4EE7-800B-29E297EE739B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="123">
   <si>
     <t>S. NO</t>
   </si>
@@ -715,6 +715,91 @@
   </si>
   <si>
     <t xml:space="preserve">solved by spliting and then convert into integer </t>
+  </si>
+  <si>
+    <t>function extractWords(para) {
+  // Using a regular expression to match words
+  // const wordsArray = text.match(/\b\w+\b/g);
+  const wordsArray = para.split(" ")
+  return wordsArray; // Return an empty array if no words found
+}
+// Example usage:
+const para = "This is a paragraph green yellow red soyal tushar ritvik.";
+console.log("This is an line : ",para);
+const words = extractWords(para);
+console.log(words);</t>
+  </si>
+  <si>
+    <t>10 min</t>
+  </si>
+  <si>
+    <t>Create a function that returns an array with words inside a text.</t>
+  </si>
+  <si>
+    <t>learn about regular exprations</t>
+  </si>
+  <si>
+    <t>Create a function to convert a CSV text to a “bi-dimensional” arra</t>
+  </si>
+  <si>
+    <t>const csvToArray = (csvText) =&gt; {
+  const lines = csvText.trim().split("\n");// remove if any space
+  const result = [];// empty array to store data
+  //fetch data
+  for (d of lines) {
+    const values = d.split(",");// split data by ","
+    result.push(values);// push data to 
+  }
+  return result;
+};
+const csvText = `
+Name, Age, Country
+soyak, 25, delhi
+rohan, 30, up
+mohan, 30, mp
+`;
+const array2D = csvToArray(csvText);
+console.log(array2D);</t>
+  </si>
+  <si>
+    <t>learn,split,and 2d arr</t>
+  </si>
+  <si>
+    <t>Create a function that converts a string to an array of character</t>
+  </si>
+  <si>
+    <t>const ArrToChar = (str) =&gt;{
+  const arr = []
+let finVal = str.trim()
+for( a of finVal){
+  arr.push(a)
+}
+console.log(arr);
+return arr
+}
+let str = "This is sample string";
+ArrToChar(str)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+const showASCII = (str) =&gt;{
+const arr = []
+for( a of str){
+  let newNum = a.charCodeAt(a);
+  arr.push(newNum)
+  // console.log(newNum);
+}
+console.log(arr);
+}
+let txt = "Hello"
+showASCII(txt);</t>
+  </si>
+  <si>
+    <t>Create a function that will convert a string in an array containing the ASCII codes of 
+each character</t>
+  </si>
+  <si>
+    <t>learn about charCode()</t>
   </si>
 </sst>
 </file>
@@ -769,7 +854,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -800,6 +885,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1209,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1998,33 +2086,94 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="133" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B36" s="2">
+        <v>45381</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="199.5" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>35</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B37" s="2">
+        <v>45381</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="104.5" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B38" s="2">
+        <v>45381</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="114" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>37</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="F39" s="6"/>
+      <c r="B39" s="2">
+        <v>45381</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
